--- a/classfiers/bloated/decisionTree/bloated-decisionTree-results.xlsx
+++ b/classfiers/bloated/decisionTree/bloated-decisionTree-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6046511627906976</v>
+        <v>0.6</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9613636363636364</v>
+        <v>0.9601990049751244</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4814814814814815</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9681818181818183</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4705882352941176</v>
+        <v>0.4</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6538461538461539</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7829629629629629</v>
+        <v>0.8857142857142858</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8615384615384615</v>
+        <v>0.85</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7450478796169631</v>
+        <v>0.8</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9166783216783218</v>
+        <v>0.9170398009950249</v>
       </c>
     </row>
   </sheetData>
